--- a/btpy/src/btpy/res/regions_by_country.xlsx
+++ b/btpy/src/btpy/res/regions_by_country.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
   <si>
     <t>France</t>
   </si>
@@ -900,6 +900,42 @@
   </si>
   <si>
     <t>Jeju</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Agder</t>
+  </si>
+  <si>
+    <t>Innlandet</t>
+  </si>
+  <si>
+    <t>More og Romsdal</t>
+  </si>
+  <si>
+    <t>Nordland</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>Rogaland</t>
+  </si>
+  <si>
+    <t>Vestfold og Telemark</t>
+  </si>
+  <si>
+    <t>Troms og Finnmark</t>
+  </si>
+  <si>
+    <t>Trongelag</t>
+  </si>
+  <si>
+    <t>Vestland</t>
+  </si>
+  <si>
+    <t>Viken</t>
   </si>
 </sst>
 </file>
@@ -1851,10 +1887,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CC9"/>
+  <dimension ref="A1:CC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6666666666667" defaultRowHeight="17.4"/>
@@ -2751,6 +2787,44 @@
       </c>
       <c r="J9" s="3" t="s">
         <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/btpy/src/btpy/res/regions_by_country.xlsx
+++ b/btpy/src/btpy/res/regions_by_country.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="334">
   <si>
     <t>France</t>
   </si>
@@ -936,6 +936,99 @@
   </si>
   <si>
     <t>Viken</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Capital Region</t>
+  </si>
+  <si>
+    <t>Southern Peninsula</t>
+  </si>
+  <si>
+    <t>Western Region</t>
+  </si>
+  <si>
+    <t>Westfjords</t>
+  </si>
+  <si>
+    <t>Northwestern Region</t>
+  </si>
+  <si>
+    <t>Northeastern Region</t>
+  </si>
+  <si>
+    <t>Eastern Region</t>
+  </si>
+  <si>
+    <t>Southern Region</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Stockholm County</t>
+  </si>
+  <si>
+    <t>Uppsala County</t>
+  </si>
+  <si>
+    <t>Sodermanland County</t>
+  </si>
+  <si>
+    <t>Ostergotland County</t>
+  </si>
+  <si>
+    <t>Jonkoping County</t>
+  </si>
+  <si>
+    <t>Kronoberg County</t>
+  </si>
+  <si>
+    <t>Kalmar County</t>
+  </si>
+  <si>
+    <t>Gotland County</t>
+  </si>
+  <si>
+    <t>Blekinge County</t>
+  </si>
+  <si>
+    <t>Skane County</t>
+  </si>
+  <si>
+    <t>Halland County</t>
+  </si>
+  <si>
+    <t>Vastra Gotaland County</t>
+  </si>
+  <si>
+    <t>Varmland County</t>
+  </si>
+  <si>
+    <t>Orebro County</t>
+  </si>
+  <si>
+    <t>Vastmanland County</t>
+  </si>
+  <si>
+    <t>Dalarna County</t>
+  </si>
+  <si>
+    <t>Gavleborg County</t>
+  </si>
+  <si>
+    <t>Vasternorrland County</t>
+  </si>
+  <si>
+    <t>Jamtland County</t>
+  </si>
+  <si>
+    <t>Vasterbotten County</t>
+  </si>
+  <si>
+    <t>Norrbotten County</t>
   </si>
 </sst>
 </file>
@@ -948,7 +1041,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -965,6 +1058,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202122"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -1431,143 +1530,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1887,10 +1991,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CC10"/>
+  <dimension ref="A1:CC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6666666666667" defaultRowHeight="17.4"/>
@@ -2825,6 +2929,103 @@
       </c>
       <c r="L10" s="1" t="s">
         <v>302</v>
+      </c>
+    </row>
+    <row r="11" ht="30" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2838,6 +3039,34 @@
     <hyperlink ref="H9" r:id="rId7" display="North Jeolla" tooltip="https://en.wikipedia.org/wiki/North_Jeolla_Province"/>
     <hyperlink ref="I9" r:id="rId8" display="South Jeolla" tooltip="https://en.wikipedia.org/wiki/South_Jeolla_Province"/>
     <hyperlink ref="J9" r:id="rId9" display="Jeju" tooltip="https://en.wikipedia.org/wiki/Jeju_Province"/>
+    <hyperlink ref="C11" r:id="rId10" display="Southern Peninsula" tooltip="https://en.wikipedia.org/wiki/Southern_Peninsula_(Iceland)"/>
+    <hyperlink ref="D11" r:id="rId11" display="Western Region" tooltip="https://en.wikipedia.org/wiki/Western_Region_(Iceland)"/>
+    <hyperlink ref="E11" r:id="rId12" display="Westfjords" tooltip="https://en.wikipedia.org/wiki/Westfjords"/>
+    <hyperlink ref="F11" r:id="rId13" display="Northwestern Region" tooltip="https://en.wikipedia.org/wiki/Northwestern_Region_(Iceland)"/>
+    <hyperlink ref="G11" r:id="rId14" display="Northeastern Region" tooltip="https://en.wikipedia.org/wiki/Northeastern_Region_(Iceland)"/>
+    <hyperlink ref="H11" r:id="rId15" display="Eastern Region" tooltip="https://en.wikipedia.org/wiki/Eastern_Region_(Iceland)"/>
+    <hyperlink ref="I11" r:id="rId16" display="Southern Region" tooltip="https://en.wikipedia.org/wiki/Southern_Region_(Iceland)"/>
+    <hyperlink ref="B12" r:id="rId17" display="Stockholm County" tooltip="https://en.wikipedia.org/wiki/Stockholm_County"/>
+    <hyperlink ref="C12" r:id="rId18" display="Uppsala County" tooltip="https://en.wikipedia.org/wiki/Uppsala_County"/>
+    <hyperlink ref="D12" r:id="rId19" display="Sodermanland County" tooltip="https://en.wikipedia.org/wiki/S%C3%B6dermanland_County"/>
+    <hyperlink ref="E12" r:id="rId20" display="Ostergotland County" tooltip="https://en.wikipedia.org/wiki/%C3%96sterg%C3%B6tland_County"/>
+    <hyperlink ref="F12" r:id="rId21" display="Jonkoping County" tooltip="https://en.wikipedia.org/wiki/J%C3%B6nk%C3%B6ping_County"/>
+    <hyperlink ref="G12" r:id="rId22" display="Kronoberg County" tooltip="https://en.wikipedia.org/wiki/Kronoberg_County"/>
+    <hyperlink ref="H12" r:id="rId23" display="Kalmar County" tooltip="https://en.wikipedia.org/wiki/Kalmar_County"/>
+    <hyperlink ref="I12" r:id="rId24" display="Gotland County" tooltip="https://en.wikipedia.org/wiki/Gotland_County"/>
+    <hyperlink ref="J12" r:id="rId25" display="Blekinge County" tooltip="https://en.wikipedia.org/wiki/Blekinge_County"/>
+    <hyperlink ref="K12" r:id="rId26" display="Skane County" tooltip="https://en.wikipedia.org/wiki/Sk%C3%A5ne_County"/>
+    <hyperlink ref="L12" r:id="rId27" display="Halland County" tooltip="https://en.wikipedia.org/wiki/Halland_County"/>
+    <hyperlink ref="M12" r:id="rId28" display="Vastra Gotaland County" tooltip="https://en.wikipedia.org/wiki/V%C3%A4stra_G%C3%B6taland_County"/>
+    <hyperlink ref="N12" r:id="rId29" display="Varmland County" tooltip="https://en.wikipedia.org/wiki/V%C3%A4rmland_County"/>
+    <hyperlink ref="O12" r:id="rId30" display="Orebro County" tooltip="https://en.wikipedia.org/wiki/%C3%96rebro_County"/>
+    <hyperlink ref="P12" r:id="rId31" display="Vastmanland County" tooltip="https://en.wikipedia.org/wiki/V%C3%A4stmanland_County"/>
+    <hyperlink ref="Q12" r:id="rId32" display="Dalarna County" tooltip="https://en.wikipedia.org/wiki/Dalarna_County"/>
+    <hyperlink ref="R12" r:id="rId33" display="Gavleborg County" tooltip="https://en.wikipedia.org/wiki/G%C3%A4vleborg_County"/>
+    <hyperlink ref="S12" r:id="rId34" display="Vasternorrland County" tooltip="https://en.wikipedia.org/wiki/V%C3%A4sternorrland_County"/>
+    <hyperlink ref="T12" r:id="rId35" display="Jamtland County" tooltip="https://en.wikipedia.org/wiki/J%C3%A4mtland_County"/>
+    <hyperlink ref="U12" r:id="rId36" display="Vasterbotten County" tooltip="https://en.wikipedia.org/wiki/V%C3%A4sterbotten_County"/>
+    <hyperlink ref="V12" r:id="rId37" display="Norrbotten County" tooltip="https://en.wikipedia.org/wiki/Norrbotten_County"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
